--- a/科研总结/论文的传感器制备和器件/仪器设备.xlsx
+++ b/科研总结/论文的传感器制备和器件/仪器设备.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\汇总文件\设备与传感器\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git\科研总结\论文的传感器制备和器件\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89251184-39EB-4959-927C-88475CCE5C3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D600D2B4-6F4A-48FA-AAD8-E814BEDD2416}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="22620" windowHeight="13620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -359,10 +359,11 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>A wireless haptic interface for programmable patterns of touch across large areas of the skin</t>
+  </si>
+  <si>
     <t>Te passive components (resistors, capacitors and inductors), microcontroller (ATmega328P-MNR, Microchip Technology), BLE system on chip (CC2640R2FRSMT, Texas Instruments), antenna (2450AT18D0100, Johanson Technology), port expander (XRA1201PIL24-F, MaxLinear), full-bridge rectifer (BAS4002ARPPE6327HTSA1, Infneon Technologies), d.c.–d.c. converter (LM5166XDRCR, Texas Instruments) and 3.7V lithium polymer battery charge management controller (MCP73831T-4ADI/OT, Microchip Technology) were bonded to the FPCB via a low-temperature refow process with soldering paste (TS391LT, Chip Quik) and a heat gun (Aoyue Int866).</t>
-  </si>
-  <si>
-    <t>A wireless haptic interface for programmable patterns of touch across large areas of the skin</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -756,8 +757,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+    <sheetView tabSelected="1" topLeftCell="B16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.45"/>
@@ -1138,10 +1139,10 @@
         <v>17</v>
       </c>
       <c r="D18" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="E18" s="12" t="s">
         <v>91</v>
-      </c>
-      <c r="E18" s="12" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.45">
